--- a/doc/数据库表名称(表名解释).xlsx
+++ b/doc/数据库表名称(表名解释).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="492">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -52,9 +52,6 @@
     <t>是否续用</t>
   </si>
   <si>
-    <t>FACT_DAILY_3G</t>
-  </si>
-  <si>
     <t>3G日报表</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>FACT_DAILY_3GPROMOTION</t>
   </si>
   <si>
     <t>3G推广报表</t>
@@ -415,9 +409,6 @@
   </si>
   <si>
     <t>processhmsc</t>
-  </si>
-  <si>
-    <t>FACT_UV_HMSC</t>
   </si>
   <si>
     <t>APP应用渠道维度表（UV）</t>
@@ -1062,9 +1053,6 @@
   </si>
   <si>
     <t>processpvsession</t>
-  </si>
-  <si>
-    <t>FACT_SIGN_EXTRA</t>
   </si>
   <si>
     <t>用户签到事实表</t>
@@ -1758,6 +1746,26 @@
     <t>done</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>FACT_SIGN_EXTRA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_UV_HMSC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_DAILY_3G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_DAILY_3GPROMOTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2152,8 +2160,8 @@
   <dimension ref="A1:XH243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J145" sqref="J145"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2198,251 +2206,251 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:632" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:632" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3070,12 +3078,12 @@
     </row>
     <row r="14" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3703,12 +3711,12 @@
     </row>
     <row r="15" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4336,60 +4344,60 @@
     </row>
     <row r="16" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -5017,15 +5025,15 @@
     </row>
     <row r="19" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -5653,12 +5661,12 @@
     </row>
     <row r="20" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -6286,69 +6294,69 @@
     </row>
     <row r="21" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="6"/>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23"/>
@@ -6979,121 +6987,121 @@
     </row>
     <row r="24" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:632" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -7721,110 +7729,110 @@
     </row>
     <row r="30" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6"/>
       <c r="J34" s="9"/>
@@ -8453,37 +8461,37 @@
     </row>
     <row r="35" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -9111,16 +9119,16 @@
     </row>
     <row r="37" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -9748,154 +9756,154 @@
     </row>
     <row r="38" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -10523,39 +10531,39 @@
     </row>
     <row r="45" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -11183,16 +11191,16 @@
     </row>
     <row r="47" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -11820,43 +11828,43 @@
     </row>
     <row r="48" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G49" s="6"/>
       <c r="J49" s="9"/>
@@ -12485,22 +12493,22 @@
     </row>
     <row r="50" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="6"/>
       <c r="J50" s="9"/>
@@ -13129,16 +13137,16 @@
     </row>
     <row r="51" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -13766,16 +13774,16 @@
     </row>
     <row r="52" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -14403,470 +14411,473 @@
     </row>
     <row r="53" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G54" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G55" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G56" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G62" s="6"/>
       <c r="I62" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I66" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>489</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="I67" t="s">
         <v>15</v>
       </c>
-      <c r="I67" t="s">
-        <v>16</v>
+      <c r="J67" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="A68" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G69" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:632" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G70" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:632" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -15494,72 +15505,72 @@
     </row>
     <row r="73" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F73" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G75" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
@@ -16189,48 +16200,48 @@
     </row>
     <row r="76" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G76" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G77" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -16860,231 +16871,231 @@
     </row>
     <row r="78" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G78" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G79" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G86" s="6"/>
       <c r="I86" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -17094,112 +17105,112 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92"/>
       <c r="I92" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -17827,249 +17838,249 @@
     </row>
     <row r="93" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F101" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G103" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -18079,7 +18090,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -18707,19 +18718,19 @@
     </row>
     <row r="105" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -19349,42 +19360,42 @@
     </row>
     <row r="106" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
         <v>62</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -20016,7 +20027,7 @@
     </row>
     <row r="108" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -20026,12 +20037,12 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -20041,7 +20052,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -20669,7 +20680,7 @@
     </row>
     <row r="110" spans="1:632" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -20679,37 +20690,37 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F111" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H111"/>
       <c r="I111" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -21336,32 +21347,32 @@
     </row>
     <row r="112" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F112" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H112"/>
       <c r="I112" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -21988,29 +21999,29 @@
     </row>
     <row r="113" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F113" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H113"/>
       <c r="I113" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -22638,33 +22649,33 @@
     </row>
     <row r="114" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F114" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -22674,7 +22685,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -23302,77 +23313,77 @@
     </row>
     <row r="116" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G118" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -24002,7 +24013,7 @@
     </row>
     <row r="119" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -24012,41 +24023,41 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H120">
         <v>9.4</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -24056,12 +24067,12 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -24071,7 +24082,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -24699,53 +24710,53 @@
     </row>
     <row r="123" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -25372,10 +25383,10 @@
     </row>
     <row r="125" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -26003,29 +26014,29 @@
     </row>
     <row r="126" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H126"/>
       <c r="I126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -26653,51 +26664,51 @@
     </row>
     <row r="127" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="F127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -27325,175 +27336,175 @@
     </row>
     <row r="129" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="I129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="F130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
         <v>39</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>41</v>
-      </c>
       <c r="I131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="F132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G132" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="F133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F133" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G133" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G134" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -27503,12 +27514,12 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -27518,54 +27529,54 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E138" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G138" s="6"/>
       <c r="I138" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="F139" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F139" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G139" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
@@ -28195,7 +28206,7 @@
     </row>
     <row r="140" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -28205,7 +28216,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -28833,49 +28844,49 @@
     </row>
     <row r="141" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -29502,29 +29513,29 @@
     </row>
     <row r="143" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E143" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G143" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H143"/>
       <c r="I143" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
@@ -30152,43 +30163,43 @@
     </row>
     <row r="144" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A144" s="15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G144" s="6"/>
       <c r="J144" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>487</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -30818,187 +30829,187 @@
     </row>
     <row r="146" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
+        <v>488</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I148" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="I149" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G150" s="6"/>
       <c r="J150" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="153" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E153" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -31008,12 +31019,12 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -31023,35 +31034,35 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C156" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="F156" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F156" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G156" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -31061,7 +31072,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -31689,25 +31700,25 @@
     </row>
     <row r="158" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="F158" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G158" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
@@ -32337,7 +32348,7 @@
     </row>
     <row r="159" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -32347,7 +32358,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
@@ -32975,25 +32986,25 @@
     </row>
     <row r="160" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="F160" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G160" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -33623,7 +33634,7 @@
     </row>
     <row r="161" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -33633,53 +33644,53 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="162" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C162" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="F162" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G162" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="F163" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G163" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
@@ -34309,7 +34320,7 @@
     </row>
     <row r="164" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -34319,37 +34330,37 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I165"/>
       <c r="J165" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -34976,61 +34987,61 @@
     </row>
     <row r="166" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B167" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" s="6" t="s">
+      <c r="H167" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="I167"/>
       <c r="J167" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -35657,10 +35668,10 @@
     </row>
     <row r="168" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -36288,10 +36299,10 @@
     </row>
     <row r="169" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -36919,10 +36930,10 @@
     </row>
     <row r="170" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -37550,10 +37561,10 @@
     </row>
     <row r="171" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
@@ -38181,10 +38192,10 @@
     </row>
     <row r="172" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -38812,10 +38823,10 @@
     </row>
     <row r="173" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -39443,10 +39454,10 @@
     </row>
     <row r="174" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -40074,10 +40085,10 @@
     </row>
     <row r="175" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -40705,10 +40716,10 @@
     </row>
     <row r="176" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -41336,10 +41347,10 @@
     </row>
     <row r="177" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -41967,10 +41978,10 @@
     </row>
     <row r="178" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -42598,10 +42609,10 @@
     </row>
     <row r="179" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -43229,10 +43240,10 @@
     </row>
     <row r="180" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -43860,38 +43871,38 @@
     </row>
     <row r="181" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D181" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
     </row>
     <row r="182" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D182" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
@@ -43899,7 +43910,7 @@
     </row>
     <row r="183" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -43909,12 +43920,12 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -43924,12 +43935,12 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -43939,12 +43950,12 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -43954,12 +43965,12 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -43969,12 +43980,12 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="188" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -43984,12 +43995,12 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -43999,12 +44010,12 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -44014,12 +44025,12 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -44029,12 +44040,12 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -44044,44 +44055,44 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E193" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F193" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F194"/>
       <c r="G194"/>
@@ -44713,25 +44724,25 @@
     </row>
     <row r="195" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F195" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H195">
         <v>30</v>
@@ -45363,30 +45374,30 @@
     </row>
     <row r="196" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D196" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E196" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F196" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H196"/>
       <c r="I196"/>
       <c r="J196" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -46013,25 +46024,25 @@
     </row>
     <row r="197" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D197" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E197" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F197" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H197"/>
       <c r="I197"/>
@@ -46661,25 +46672,25 @@
     </row>
     <row r="198" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F198" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H198"/>
       <c r="I198"/>
@@ -47309,28 +47320,28 @@
     </row>
     <row r="199" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E199" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F199" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
       <c r="I199"/>
       <c r="J199" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
@@ -47957,28 +47968,28 @@
     </row>
     <row r="200" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E200" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F200" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G200"/>
       <c r="H200"/>
       <c r="I200"/>
       <c r="J200" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -48605,28 +48616,28 @@
     </row>
     <row r="201" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E201" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F201" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G201"/>
       <c r="H201"/>
       <c r="I201"/>
       <c r="J201" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
@@ -49253,30 +49264,30 @@
     </row>
     <row r="202" spans="1:632" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E202" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F202" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
       <c r="J202" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -49903,19 +49914,19 @@
     </row>
     <row r="203" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F203"/>
       <c r="G203"/>
@@ -50547,10 +50558,10 @@
     </row>
     <row r="204" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -51178,7 +51189,7 @@
     </row>
     <row r="205" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -51814,44 +51825,44 @@
     </row>
     <row r="206" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="207" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
@@ -52479,10 +52490,10 @@
     </row>
     <row r="208" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -53110,7 +53121,7 @@
     </row>
     <row r="209" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B209"/>
       <c r="C209"/>
@@ -53746,29 +53757,29 @@
     </row>
     <row r="210" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
@@ -54396,29 +54407,29 @@
     </row>
     <row r="211" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
@@ -55046,29 +55057,29 @@
     </row>
     <row r="212" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
@@ -55696,50 +55707,50 @@
     </row>
     <row r="213" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="214" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="215" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="217" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="220" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="221" spans="1:632" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J221" s="10"/>
       <c r="K221" s="10"/>
@@ -56367,93 +56378,93 @@
     </row>
     <row r="222" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="224" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="225" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="226" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="228" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="231" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="232" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="233" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B233" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B234" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -57081,10 +57092,10 @@
     </row>
     <row r="236" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -57712,10 +57723,10 @@
     </row>
     <row r="237" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -58343,56 +58354,56 @@
     </row>
     <row r="238" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="239" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I239" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="240" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -58423,7 +58434,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/doc/数据库表名称(表名解释).xlsx
+++ b/doc/数据库表名称(表名解释).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="495">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -524,9 +524,6 @@
     <t>OS维度表</t>
   </si>
   <si>
-    <t>FACT_DAILY_PC</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -776,13 +773,7 @@
     <t>processgoodsalesstatic</t>
   </si>
   <si>
-    <t>FACT_GOODS_STOCK</t>
-  </si>
-  <si>
     <t>商品库存表</t>
-  </si>
-  <si>
-    <t>FACT_GOODS_DIM_TOTAL</t>
   </si>
   <si>
     <t>商品宽表</t>
@@ -803,13 +794,7 @@
     <t>每两个小时</t>
   </si>
   <si>
-    <t>FACT_GOODS_ORDER_DAYLY</t>
-  </si>
-  <si>
     <t>商品日报表</t>
-  </si>
-  <si>
-    <t>FACT_GOODS_PAGE_VIEW</t>
   </si>
   <si>
     <t>商品日报表（中间表1）</t>
@@ -1056,9 +1041,6 @@
   </si>
   <si>
     <t>用户签到事实表</t>
-  </si>
-  <si>
-    <t>FACT_VISITOR_REGISTER</t>
   </si>
   <si>
     <t>用户设备注册表</t>
@@ -1766,6 +1748,42 @@
     <t>FACT_DAILY_3GPROMOTION</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>FACT_DAILY_PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_VISITOR_REGISTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_GOODS_ORDER_DAYLY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_GOODS_DIM_TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_GOODS_PAGE_VIEW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_GOODS_STOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2160,14 +2178,14 @@
   <dimension ref="A1:XH243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="59.83203125" customWidth="1"/>
@@ -2206,15 +2224,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
@@ -2229,15 +2247,15 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>24</v>
@@ -2253,10 +2271,10 @@
     </row>
     <row r="4" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
@@ -2277,10 +2295,10 @@
     </row>
     <row r="5" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
@@ -2298,10 +2316,10 @@
     </row>
     <row r="6" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -2319,10 +2337,10 @@
     </row>
     <row r="7" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -2403,10 +2421,10 @@
     </row>
     <row r="11" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -2424,10 +2442,10 @@
     </row>
     <row r="12" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>24</v>
@@ -2445,12 +2463,12 @@
     </row>
     <row r="13" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3078,12 +3096,12 @@
     </row>
     <row r="14" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3711,12 +3729,12 @@
     </row>
     <row r="15" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4344,10 +4362,10 @@
     </row>
     <row r="16" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>24</v>
@@ -4363,10 +4381,10 @@
     </row>
     <row r="17" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -4381,23 +4399,23 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -5025,15 +5043,15 @@
     </row>
     <row r="19" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -5661,12 +5679,12 @@
     </row>
     <row r="20" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -6987,7 +7005,7 @@
     </row>
     <row r="24" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
@@ -7001,15 +7019,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>24</v>
@@ -7027,10 +7045,10 @@
     </row>
     <row r="26" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -7048,10 +7066,10 @@
     </row>
     <row r="27" spans="1:632" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
@@ -7066,15 +7084,15 @@
         <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>24</v>
@@ -7092,7 +7110,7 @@
     </row>
     <row r="29" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
@@ -7101,7 +7119,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -7729,10 +7747,10 @@
     </row>
     <row r="30" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>24</v>
@@ -7771,10 +7789,10 @@
     </row>
     <row r="32" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>24</v>
@@ -7789,15 +7807,15 @@
         <v>13</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -7812,15 +7830,15 @@
         <v>13</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -8461,10 +8479,10 @@
     </row>
     <row r="35" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>24</v>
@@ -8482,7 +8500,7 @@
     </row>
     <row r="36" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>24</v>
@@ -8491,7 +8509,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -9119,7 +9137,7 @@
     </row>
     <row r="37" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>24</v>
@@ -9128,7 +9146,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -9756,10 +9774,10 @@
     </row>
     <row r="38" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -9774,18 +9792,18 @@
         <v>89</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>10</v>
@@ -9800,18 +9818,18 @@
         <v>89</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>24</v>
@@ -9829,10 +9847,10 @@
     </row>
     <row r="41" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>24</v>
@@ -9850,10 +9868,10 @@
     </row>
     <row r="42" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>24</v>
@@ -9871,10 +9889,10 @@
     </row>
     <row r="43" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>24</v>
@@ -9889,12 +9907,12 @@
         <v>13</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>24</v>
@@ -9903,7 +9921,7 @@
         <v>25</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -10531,10 +10549,10 @@
     </row>
     <row r="45" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>24</v>
@@ -10549,12 +10567,12 @@
         <v>89</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>24</v>
@@ -10563,7 +10581,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -11191,7 +11209,7 @@
     </row>
     <row r="47" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>24</v>
@@ -11200,7 +11218,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -11828,10 +11846,10 @@
     </row>
     <row r="48" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
@@ -11849,10 +11867,10 @@
     </row>
     <row r="49" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>24</v>
@@ -12493,10 +12511,10 @@
     </row>
     <row r="50" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>24</v>
@@ -13137,7 +13155,7 @@
     </row>
     <row r="51" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>24</v>
@@ -13146,7 +13164,7 @@
         <v>25</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -13774,7 +13792,7 @@
     </row>
     <row r="52" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>24</v>
@@ -13783,7 +13801,7 @@
         <v>25</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -14411,10 +14429,10 @@
     </row>
     <row r="53" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>24</v>
@@ -14432,7 +14450,7 @@
     </row>
     <row r="54" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>18</v>
@@ -14458,7 +14476,7 @@
     </row>
     <row r="55" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>19</v>
@@ -14529,82 +14547,82 @@
     </row>
     <row r="58" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:632" x14ac:dyDescent="0.15">
@@ -14705,10 +14723,10 @@
     </row>
     <row r="66" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>24</v>
@@ -14723,7 +14741,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>26</v>
@@ -14731,7 +14749,7 @@
     </row>
     <row r="67" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>9</v>
@@ -14755,12 +14773,12 @@
         <v>15</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>16</v>
@@ -14782,11 +14800,14 @@
       </c>
       <c r="I68" t="s">
         <v>15</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>65</v>
@@ -14861,7 +14882,7 @@
     </row>
     <row r="72" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -14877,7 +14898,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -15505,10 +15526,10 @@
     </row>
     <row r="73" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -15523,15 +15544,15 @@
         <v>89</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -15547,15 +15568,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+      <c r="A75" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -15570,7 +15591,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
@@ -16200,10 +16221,10 @@
     </row>
     <row r="76" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -16218,15 +16239,15 @@
         <v>13</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -16241,7 +16262,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -16871,10 +16892,10 @@
     </row>
     <row r="78" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>10</v>
@@ -16889,15 +16910,15 @@
         <v>13</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
@@ -16912,18 +16933,18 @@
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>11</v>
@@ -16935,21 +16956,21 @@
         <v>89</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>11</v>
@@ -16961,21 +16982,21 @@
         <v>89</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>11</v>
@@ -16987,21 +17008,21 @@
         <v>89</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>11</v>
@@ -17013,21 +17034,21 @@
         <v>89</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>11</v>
@@ -17039,10 +17060,10 @@
         <v>89</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:632" x14ac:dyDescent="0.15">
@@ -17095,7 +17116,7 @@
     </row>
     <row r="87" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -17105,7 +17126,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:632" x14ac:dyDescent="0.15">
@@ -17150,10 +17171,10 @@
     </row>
     <row r="90" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>93</v>
@@ -17171,10 +17192,10 @@
     </row>
     <row r="91" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>93</v>
@@ -17875,11 +17896,11 @@
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A95" s="6" t="s">
-        <v>192</v>
+      <c r="A95" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>93</v>
@@ -17892,13 +17913,16 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
+      <c r="J95" s="12" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="96" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>93</v>
@@ -17913,21 +17937,21 @@
         <v>89</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A97" s="6" t="s">
-        <v>199</v>
+      <c r="A97" s="13" t="s">
+        <v>490</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>10</v>
@@ -17940,13 +17964,16 @@
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
+      <c r="J97" s="12" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="98" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A98" s="6" t="s">
-        <v>201</v>
+      <c r="A98" s="13" t="s">
+        <v>493</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -17956,14 +17983,17 @@
       </c>
       <c r="E98" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>93</v>
@@ -17978,18 +18008,18 @@
         <v>89</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>93</v>
@@ -18004,18 +18034,18 @@
         <v>89</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -18030,18 +18060,18 @@
         <v>89</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A102" s="6" t="s">
-        <v>190</v>
+      <c r="A102" s="13" t="s">
+        <v>494</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>93</v>
@@ -18054,6 +18084,9 @@
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
+      <c r="J102" s="12" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="103" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
@@ -18080,7 +18113,7 @@
     </row>
     <row r="104" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -18090,7 +18123,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -18718,10 +18751,10 @@
     </row>
     <row r="105" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>93</v>
@@ -19383,10 +19416,10 @@
     </row>
     <row r="107" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>24</v>
@@ -20027,7 +20060,7 @@
     </row>
     <row r="108" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -20037,12 +20070,12 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -20052,7 +20085,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -20680,7 +20713,7 @@
     </row>
     <row r="110" spans="1:632" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -20690,18 +20723,18 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>11</v>
@@ -20713,14 +20746,14 @@
         <v>89</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H111"/>
       <c r="I111" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -21347,13 +21380,13 @@
     </row>
     <row r="112" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>11</v>
@@ -21365,14 +21398,14 @@
         <v>89</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H112"/>
       <c r="I112" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -21999,13 +22032,13 @@
     </row>
     <row r="113" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>11</v>
@@ -22017,11 +22050,11 @@
         <v>89</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H113"/>
       <c r="I113" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -22649,13 +22682,13 @@
     </row>
     <row r="114" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>11</v>
@@ -22667,15 +22700,15 @@
         <v>89</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -22685,7 +22718,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -23313,10 +23346,10 @@
     </row>
     <row r="116" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>93</v>
@@ -23331,18 +23364,18 @@
         <v>89</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>93</v>
@@ -23357,18 +23390,18 @@
         <v>89</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>93</v>
@@ -23383,7 +23416,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -24013,7 +24046,7 @@
     </row>
     <row r="119" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -24023,15 +24056,15 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>93</v>
@@ -24046,18 +24079,18 @@
         <v>89</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H120">
         <v>9.4</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -24067,12 +24100,12 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -24082,7 +24115,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -24733,10 +24766,10 @@
     </row>
     <row r="124" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>93</v>
@@ -24751,12 +24784,12 @@
         <v>89</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -25383,10 +25416,10 @@
     </row>
     <row r="125" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -26690,10 +26723,10 @@
     </row>
     <row r="128" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>93</v>
@@ -26708,7 +26741,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -27414,10 +27447,10 @@
     </row>
     <row r="132" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -27432,15 +27465,15 @@
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -27455,15 +27488,15 @@
         <v>13</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -27478,15 +27511,15 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>93</v>
@@ -27504,7 +27537,7 @@
     </row>
     <row r="136" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -27514,12 +27547,12 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -27529,15 +27562,15 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>81</v>
@@ -27553,7 +27586,7 @@
       </c>
       <c r="G138" s="6"/>
       <c r="I138" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -28206,7 +28239,7 @@
     </row>
     <row r="140" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -28216,7 +28249,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -28844,10 +28877,10 @@
     </row>
     <row r="141" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>93</v>
@@ -28865,10 +28898,10 @@
     </row>
     <row r="142" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>93</v>
@@ -28883,10 +28916,10 @@
         <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -30163,10 +30196,10 @@
     </row>
     <row r="144" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A144" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>93</v>
@@ -30182,15 +30215,15 @@
       </c>
       <c r="G144" s="6"/>
       <c r="J144" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>93</v>
@@ -30829,10 +30862,10 @@
     </row>
     <row r="146" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>93</v>
@@ -30848,10 +30881,10 @@
     </row>
     <row r="147" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>93</v>
@@ -30867,7 +30900,7 @@
     </row>
     <row r="148" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>80</v>
@@ -30893,10 +30926,10 @@
     </row>
     <row r="149" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>81</v>
@@ -30910,15 +30943,15 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="I149" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>93</v>
@@ -30934,15 +30967,15 @@
       </c>
       <c r="G150" s="6"/>
       <c r="J150" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>284</v>
+      <c r="A151" s="13" t="s">
+        <v>488</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>93</v>
@@ -30957,15 +30990,18 @@
         <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>93</v>
@@ -30980,18 +31016,18 @@
         <v>89</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>10</v>
@@ -31000,7 +31036,7 @@
         <v>11</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>13</v>
@@ -31009,7 +31045,7 @@
     </row>
     <row r="154" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -31019,12 +31055,12 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -31034,15 +31070,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -31057,12 +31093,12 @@
         <v>13</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -31072,7 +31108,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -31700,10 +31736,10 @@
     </row>
     <row r="158" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -31718,7 +31754,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
@@ -32348,7 +32384,7 @@
     </row>
     <row r="159" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -32358,7 +32394,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
@@ -32986,10 +33022,10 @@
     </row>
     <row r="160" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>10</v>
@@ -33004,7 +33040,7 @@
         <v>13</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -33634,7 +33670,7 @@
     </row>
     <row r="161" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -33644,15 +33680,15 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>10</v>
@@ -33667,15 +33703,15 @@
         <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -33690,7 +33726,7 @@
         <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
@@ -34320,7 +34356,7 @@
     </row>
     <row r="164" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -34330,12 +34366,12 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>92</v>
@@ -34360,7 +34396,7 @@
       </c>
       <c r="I165"/>
       <c r="J165" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -34987,7 +35023,7 @@
     </row>
     <row r="166" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>101</v>
@@ -35011,12 +35047,12 @@
         <v>91</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>87</v>
@@ -35041,7 +35077,7 @@
       </c>
       <c r="I167"/>
       <c r="J167" s="12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -35668,10 +35704,10 @@
     </row>
     <row r="168" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -36299,10 +36335,10 @@
     </row>
     <row r="169" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -36930,10 +36966,10 @@
     </row>
     <row r="170" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -37561,10 +37597,10 @@
     </row>
     <row r="171" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
@@ -38192,10 +38228,10 @@
     </row>
     <row r="172" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -38823,10 +38859,10 @@
     </row>
     <row r="173" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -39454,10 +39490,10 @@
     </row>
     <row r="174" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -40085,10 +40121,10 @@
     </row>
     <row r="175" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -40716,10 +40752,10 @@
     </row>
     <row r="176" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -41347,10 +41383,10 @@
     </row>
     <row r="177" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -41978,10 +42014,10 @@
     </row>
     <row r="178" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -42609,10 +42645,10 @@
     </row>
     <row r="179" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -43240,10 +43276,10 @@
     </row>
     <row r="180" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -43871,13 +43907,13 @@
     </row>
     <row r="181" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>11</v>
@@ -43890,13 +43926,13 @@
     </row>
     <row r="182" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>11</v>
@@ -43910,7 +43946,7 @@
     </row>
     <row r="183" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -43920,12 +43956,12 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -43935,12 +43971,12 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -43950,12 +43986,12 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -43965,12 +44001,12 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -43980,12 +44016,12 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -43995,12 +44031,12 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="189" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -44010,12 +44046,12 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -44025,12 +44061,12 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -44040,12 +44076,12 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -44055,18 +44091,18 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="193" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
+        <v>147</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="C193" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>11</v>
@@ -44075,18 +44111,18 @@
         <v>12</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="194" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
+        <v>145</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="C194" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>11</v>
@@ -44724,13 +44760,13 @@
     </row>
     <row r="195" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>11</v>
@@ -44742,7 +44778,7 @@
         <v>89</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H195">
         <v>30</v>
@@ -45374,13 +45410,13 @@
     </row>
     <row r="196" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>11</v>
@@ -45392,12 +45428,12 @@
         <v>89</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H196"/>
       <c r="I196"/>
       <c r="J196" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -46024,13 +46060,13 @@
     </row>
     <row r="197" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>11</v>
@@ -46042,7 +46078,7 @@
         <v>89</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H197"/>
       <c r="I197"/>
@@ -46672,13 +46708,13 @@
     </row>
     <row r="198" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>11</v>
@@ -46690,7 +46726,7 @@
         <v>89</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H198"/>
       <c r="I198"/>
@@ -47320,13 +47356,13 @@
     </row>
     <row r="199" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B199" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>11</v>
@@ -47341,7 +47377,7 @@
       <c r="H199" s="6"/>
       <c r="I199"/>
       <c r="J199" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
@@ -47968,13 +48004,13 @@
     </row>
     <row r="200" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>11</v>
@@ -47989,7 +48025,7 @@
       <c r="H200"/>
       <c r="I200"/>
       <c r="J200" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -48616,13 +48652,13 @@
     </row>
     <row r="201" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>11</v>
@@ -48637,7 +48673,7 @@
       <c r="H201"/>
       <c r="I201"/>
       <c r="J201" s="12" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
@@ -49264,13 +49300,13 @@
     </row>
     <row r="202" spans="1:632" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>11</v>
@@ -49282,12 +49318,12 @@
         <v>89</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
       <c r="J202" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -49914,13 +49950,13 @@
     </row>
     <row r="203" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
+        <v>134</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="C203" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>11</v>
@@ -50558,10 +50594,10 @@
     </row>
     <row r="204" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -51189,7 +51225,7 @@
     </row>
     <row r="205" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -51825,10 +51861,10 @@
     </row>
     <row r="206" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="8" t="s">
@@ -51841,15 +51877,15 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="8" t="s">
@@ -51862,7 +51898,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
@@ -52490,10 +52526,10 @@
     </row>
     <row r="208" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -53121,7 +53157,7 @@
     </row>
     <row r="209" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B209"/>
       <c r="C209"/>
@@ -53757,10 +53793,10 @@
     </row>
     <row r="210" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>93</v>
@@ -53775,7 +53811,7 @@
         <v>13</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2" t="s">
@@ -54407,10 +54443,10 @@
     </row>
     <row r="211" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>93</v>
@@ -54425,7 +54461,7 @@
         <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2" t="s">
@@ -55057,10 +55093,10 @@
     </row>
     <row r="212" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>93</v>
@@ -55075,7 +55111,7 @@
         <v>13</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2" t="s">
@@ -55707,50 +55743,50 @@
     </row>
     <row r="213" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="215" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="217" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="218" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="220" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221" spans="1:632" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J221" s="10"/>
       <c r="K221" s="10"/>
@@ -56378,65 +56414,65 @@
     </row>
     <row r="222" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="225" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="226" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="232" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="233" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B233" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>25</v>
@@ -56447,10 +56483,10 @@
     </row>
     <row r="234" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B234" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>25</v>
@@ -56461,10 +56497,10 @@
     </row>
     <row r="235" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -57092,10 +57128,10 @@
     </row>
     <row r="236" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -57723,10 +57759,10 @@
     </row>
     <row r="237" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -58354,56 +58390,56 @@
     </row>
     <row r="238" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I239" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -58434,7 +58470,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/doc/数据库表名称(表名解释).xlsx
+++ b/doc/数据库表名称(表名解释).xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SQL Results'!$A$1:$XH$243</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="495">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>processmakethmsc</t>
-  </si>
-  <si>
-    <t>FACT_HMSC_MARKET</t>
   </si>
   <si>
     <t>APP渠道状态日报表</t>
@@ -972,9 +969,6 @@
   </si>
   <si>
     <t>processwxdaily</t>
-  </si>
-  <si>
-    <t>FACT_WEEK_STATS</t>
   </si>
   <si>
     <t>新媒体周数据报表</t>
@@ -1717,10 +1711,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FACT_DAILY_APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FACT_SHOPPINGCAR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1782,6 +1772,18 @@
   </si>
   <si>
     <t>FACT_GOODS_STOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_HMSC_MARKET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_WEEK_STATS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_DAILY_APP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2178,8 +2180,8 @@
   <dimension ref="A1:XH243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J103" sqref="J103"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2224,15 +2226,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
@@ -2241,21 +2243,21 @@
         <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>24</v>
@@ -2264,17 +2266,17 @@
         <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
@@ -2283,22 +2285,22 @@
         <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
@@ -2307,7 +2309,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -2316,10 +2318,10 @@
     </row>
     <row r="6" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -2328,7 +2330,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
@@ -2337,10 +2339,10 @@
     </row>
     <row r="7" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -2349,7 +2351,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -2379,10 +2381,10 @@
     </row>
     <row r="9" spans="1:632" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>24</v>
@@ -2400,10 +2402,10 @@
     </row>
     <row r="10" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -2421,10 +2423,10 @@
     </row>
     <row r="11" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -2442,10 +2444,10 @@
     </row>
     <row r="12" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>24</v>
@@ -2454,7 +2456,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -2463,12 +2465,12 @@
     </row>
     <row r="13" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3096,12 +3098,12 @@
     </row>
     <row r="14" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3729,12 +3731,12 @@
     </row>
     <row r="15" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4362,10 +4364,10 @@
     </row>
     <row r="16" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>24</v>
@@ -4374,17 +4376,17 @@
         <v>25</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -4399,23 +4401,23 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -5043,15 +5045,15 @@
     </row>
     <row r="19" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -5679,12 +5681,12 @@
     </row>
     <row r="20" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -6312,10 +6314,10 @@
     </row>
     <row r="21" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>24</v>
@@ -6324,21 +6326,21 @@
         <v>25</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>24</v>
@@ -6347,22 +6349,22 @@
         <v>25</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="6"/>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>24</v>
@@ -6371,7 +6373,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>13</v>
@@ -7005,7 +7007,7 @@
     </row>
     <row r="24" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
@@ -7019,15 +7021,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>24</v>
@@ -7036,7 +7038,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>13</v>
@@ -7045,10 +7047,10 @@
     </row>
     <row r="26" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -7057,7 +7059,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>13</v>
@@ -7066,10 +7068,10 @@
     </row>
     <row r="27" spans="1:632" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
@@ -7084,15 +7086,15 @@
         <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>24</v>
@@ -7101,7 +7103,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>13</v>
@@ -7110,7 +7112,7 @@
     </row>
     <row r="29" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
@@ -7119,7 +7121,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -7747,10 +7749,10 @@
     </row>
     <row r="30" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>24</v>
@@ -7759,7 +7761,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>13</v>
@@ -7768,10 +7770,10 @@
     </row>
     <row r="31" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>24</v>
@@ -7780,7 +7782,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>13</v>
@@ -7789,10 +7791,10 @@
     </row>
     <row r="32" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>24</v>
@@ -7801,21 +7803,21 @@
         <v>25</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -7824,21 +7826,21 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -7847,7 +7849,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>13</v>
@@ -8479,10 +8481,10 @@
     </row>
     <row r="35" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>24</v>
@@ -8491,7 +8493,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>13</v>
@@ -8500,7 +8502,7 @@
     </row>
     <row r="36" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>24</v>
@@ -8509,7 +8511,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -9137,7 +9139,7 @@
     </row>
     <row r="37" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>24</v>
@@ -9146,7 +9148,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -9774,10 +9776,10 @@
     </row>
     <row r="38" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -9789,21 +9791,21 @@
         <v>12</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>10</v>
@@ -9815,21 +9817,21 @@
         <v>12</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>24</v>
@@ -9838,7 +9840,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>13</v>
@@ -9847,10 +9849,10 @@
     </row>
     <row r="41" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>24</v>
@@ -9859,7 +9861,7 @@
         <v>25</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>13</v>
@@ -9868,10 +9870,10 @@
     </row>
     <row r="42" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>24</v>
@@ -9889,10 +9891,10 @@
     </row>
     <row r="43" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>24</v>
@@ -9901,18 +9903,18 @@
         <v>25</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>24</v>
@@ -9921,7 +9923,7 @@
         <v>25</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -10549,10 +10551,10 @@
     </row>
     <row r="45" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>24</v>
@@ -10564,15 +10566,15 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>24</v>
@@ -10581,7 +10583,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -11209,7 +11211,7 @@
     </row>
     <row r="47" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>24</v>
@@ -11218,7 +11220,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -11846,10 +11848,10 @@
     </row>
     <row r="48" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
@@ -11867,10 +11869,10 @@
     </row>
     <row r="49" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>24</v>
@@ -12511,10 +12513,10 @@
     </row>
     <row r="50" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>24</v>
@@ -12523,7 +12525,7 @@
         <v>25</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>13</v>
@@ -13155,7 +13157,7 @@
     </row>
     <row r="51" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>24</v>
@@ -13164,7 +13166,7 @@
         <v>25</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -13792,7 +13794,7 @@
     </row>
     <row r="52" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>24</v>
@@ -13801,7 +13803,7 @@
         <v>25</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -14429,10 +14431,10 @@
     </row>
     <row r="53" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>24</v>
@@ -14450,7 +14452,7 @@
     </row>
     <row r="54" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>18</v>
@@ -14476,7 +14478,7 @@
     </row>
     <row r="55" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>19</v>
@@ -14528,10 +14530,10 @@
     </row>
     <row r="57" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -14540,89 +14542,89 @@
         <v>11</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:632" x14ac:dyDescent="0.15">
@@ -14675,10 +14677,10 @@
     </row>
     <row r="64" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>24</v>
@@ -14699,10 +14701,10 @@
     </row>
     <row r="65" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>24</v>
@@ -14723,10 +14725,10 @@
     </row>
     <row r="66" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>24</v>
@@ -14741,7 +14743,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>26</v>
@@ -14749,7 +14751,7 @@
     </row>
     <row r="67" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>9</v>
@@ -14773,12 +14775,12 @@
         <v>15</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>16</v>
@@ -14802,15 +14804,15 @@
         <v>15</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>10</v>
@@ -14825,7 +14827,10 @@
         <v>13</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:632" ht="22.5" x14ac:dyDescent="0.15">
@@ -14882,7 +14887,7 @@
     </row>
     <row r="72" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -14898,7 +14903,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -15526,10 +15531,10 @@
     </row>
     <row r="73" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -15541,18 +15546,18 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -15568,15 +15573,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -15591,7 +15596,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
@@ -16221,10 +16226,10 @@
     </row>
     <row r="76" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -16239,15 +16244,15 @@
         <v>13</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -16262,7 +16267,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -16892,10 +16897,10 @@
     </row>
     <row r="78" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>10</v>
@@ -16910,15 +16915,15 @@
         <v>13</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
@@ -16933,148 +16938,148 @@
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>25</v>
@@ -17087,18 +17092,18 @@
       </c>
       <c r="G85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>25</v>
@@ -17111,12 +17116,12 @@
       </c>
       <c r="G86" s="6"/>
       <c r="I86" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -17126,37 +17131,37 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>25</v>
@@ -17171,19 +17176,19 @@
     </row>
     <row r="90" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="C90" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>13</v>
@@ -17192,13 +17197,13 @@
     </row>
     <row r="91" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>25</v>
@@ -17897,13 +17902,13 @@
     </row>
     <row r="95" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>25</v>
@@ -17914,18 +17919,18 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="J95" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>25</v>
@@ -17934,24 +17939,24 @@
         <v>12</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G96" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="J96" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>10</v>
@@ -17965,15 +17970,15 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="J97" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -17985,18 +17990,18 @@
         <v>12</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>25</v>
@@ -18005,24 +18010,24 @@
         <v>12</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>25</v>
@@ -18031,21 +18036,21 @@
         <v>12</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -18057,24 +18062,24 @@
         <v>12</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>25</v>
@@ -18085,15 +18090,15 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="J102" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -18109,11 +18114,14 @@
       </c>
       <c r="G103" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -18123,7 +18131,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -18751,13 +18759,13 @@
     </row>
     <row r="105" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="C105" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>25</v>
@@ -19393,10 +19401,10 @@
     </row>
     <row r="106" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -19411,15 +19419,15 @@
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>24</v>
@@ -20060,7 +20068,7 @@
     </row>
     <row r="108" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -20070,12 +20078,12 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -20085,7 +20093,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -20713,7 +20721,7 @@
     </row>
     <row r="110" spans="1:632" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -20723,18 +20731,18 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>11</v>
@@ -20743,17 +20751,17 @@
         <v>12</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H111"/>
       <c r="I111" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -21380,13 +21388,13 @@
     </row>
     <row r="112" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>11</v>
@@ -21395,17 +21403,17 @@
         <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H112"/>
       <c r="I112" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -22032,13 +22040,13 @@
     </row>
     <row r="113" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="C113" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>11</v>
@@ -22047,14 +22055,14 @@
         <v>12</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H113"/>
       <c r="I113" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -22682,13 +22690,13 @@
     </row>
     <row r="114" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>11</v>
@@ -22697,18 +22705,18 @@
         <v>12</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -22718,7 +22726,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -23346,13 +23354,13 @@
     </row>
     <row r="116" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>25</v>
@@ -23361,24 +23369,24 @@
         <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>25</v>
@@ -23387,24 +23395,24 @@
         <v>12</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="C118" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>25</v>
@@ -23416,7 +23424,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -24046,7 +24054,7 @@
     </row>
     <row r="119" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -24056,18 +24064,18 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>25</v>
@@ -24076,21 +24084,21 @@
         <v>12</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H120">
         <v>9.4</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -24100,12 +24108,12 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -24115,7 +24123,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -24766,13 +24774,13 @@
     </row>
     <row r="124" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>25</v>
@@ -24781,15 +24789,15 @@
         <v>12</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -25416,10 +25424,10 @@
     </row>
     <row r="125" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -26723,25 +26731,25 @@
     </row>
     <row r="128" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -27447,10 +27455,10 @@
     </row>
     <row r="132" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -27465,15 +27473,15 @@
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -27488,15 +27496,15 @@
         <v>13</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -27511,18 +27519,18 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>25</v>
@@ -27537,7 +27545,7 @@
     </row>
     <row r="136" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -27547,12 +27555,12 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -27562,18 +27570,18 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>25</v>
@@ -27586,15 +27594,15 @@
       </c>
       <c r="G138" s="6"/>
       <c r="I138" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>10</v>
@@ -28239,7 +28247,7 @@
     </row>
     <row r="140" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -28249,7 +28257,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -28877,19 +28885,19 @@
     </row>
     <row r="141" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>13</v>
@@ -28898,28 +28906,28 @@
     </row>
     <row r="142" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -29546,13 +29554,13 @@
     </row>
     <row r="143" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="C143" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>25</v>
@@ -29568,7 +29576,7 @@
       </c>
       <c r="H143"/>
       <c r="I143" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
@@ -30196,37 +30204,37 @@
     </row>
     <row r="144" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A144" s="15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G144" s="6"/>
       <c r="J144" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="145" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>25</v>
@@ -30862,13 +30870,13 @@
     </row>
     <row r="146" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="C146" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>25</v>
@@ -30881,13 +30889,13 @@
     </row>
     <row r="147" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="C147" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>25</v>
@@ -30900,13 +30908,13 @@
     </row>
     <row r="148" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B148" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>25</v>
@@ -30921,18 +30929,18 @@
         <v>57</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
+        <v>237</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="C149" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>25</v>
@@ -30943,18 +30951,18 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="I149" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>25</v>
@@ -30967,44 +30975,44 @@
       </c>
       <c r="G150" s="6"/>
       <c r="J150" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="151" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>25</v>
@@ -31013,21 +31021,21 @@
         <v>12</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>256</v>
+      <c r="A153" s="13" t="s">
+        <v>493</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>10</v>
@@ -31036,7 +31044,7 @@
         <v>11</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>13</v>
@@ -31045,7 +31053,7 @@
     </row>
     <row r="154" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -31055,12 +31063,12 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -31070,15 +31078,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -31093,12 +31101,12 @@
         <v>13</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -31108,7 +31116,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -31736,10 +31744,10 @@
     </row>
     <row r="158" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -31754,7 +31762,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
@@ -32384,7 +32392,7 @@
     </row>
     <row r="159" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -32394,7 +32402,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
@@ -33022,10 +33030,10 @@
     </row>
     <row r="160" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>10</v>
@@ -33040,7 +33048,7 @@
         <v>13</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -33670,7 +33678,7 @@
     </row>
     <row r="161" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -33680,15 +33688,15 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="162" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>10</v>
@@ -33703,15 +33711,15 @@
         <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -33726,7 +33734,7 @@
         <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
@@ -34356,7 +34364,7 @@
     </row>
     <row r="164" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -34366,37 +34374,37 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I165"/>
       <c r="J165" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -35023,39 +35031,39 @@
     </row>
     <row r="166" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
@@ -35064,20 +35072,20 @@
         <v>11</v>
       </c>
       <c r="E167" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G167" s="6" t="s">
+      <c r="H167" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="I167"/>
       <c r="J167" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -35704,10 +35712,10 @@
     </row>
     <row r="168" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -36335,10 +36343,10 @@
     </row>
     <row r="169" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -36966,10 +36974,10 @@
     </row>
     <row r="170" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -37597,10 +37605,10 @@
     </row>
     <row r="171" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
@@ -38228,10 +38236,10 @@
     </row>
     <row r="172" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -38859,10 +38867,10 @@
     </row>
     <row r="173" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -39490,10 +39498,10 @@
     </row>
     <row r="174" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -40121,10 +40129,10 @@
     </row>
     <row r="175" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -40752,10 +40760,10 @@
     </row>
     <row r="176" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -41383,10 +41391,10 @@
     </row>
     <row r="177" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -42014,10 +42022,10 @@
     </row>
     <row r="178" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -42645,10 +42653,10 @@
     </row>
     <row r="179" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -43276,10 +43284,10 @@
     </row>
     <row r="180" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -43907,13 +43915,13 @@
     </row>
     <row r="181" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="C181" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>11</v>
@@ -43926,13 +43934,13 @@
     </row>
     <row r="182" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
+        <v>223</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="C182" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>11</v>
@@ -43946,7 +43954,7 @@
     </row>
     <row r="183" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -43956,12 +43964,12 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -43971,12 +43979,12 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -43986,12 +43994,12 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -44001,12 +44009,12 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -44016,12 +44024,12 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="188" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -44031,12 +44039,12 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="189" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -44046,12 +44054,12 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -44061,12 +44069,12 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="191" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -44076,12 +44084,12 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -44091,18 +44099,18 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
+        <v>146</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="C193" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>11</v>
@@ -44111,18 +44119,18 @@
         <v>12</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="C194" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>11</v>
@@ -44760,13 +44768,13 @@
     </row>
     <row r="195" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>11</v>
@@ -44775,10 +44783,10 @@
         <v>12</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H195">
         <v>30</v>
@@ -45410,13 +45418,13 @@
     </row>
     <row r="196" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>11</v>
@@ -45425,15 +45433,15 @@
         <v>12</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H196"/>
       <c r="I196"/>
       <c r="J196" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -46060,13 +46068,13 @@
     </row>
     <row r="197" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>11</v>
@@ -46075,10 +46083,10 @@
         <v>12</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H197"/>
       <c r="I197"/>
@@ -46708,13 +46716,13 @@
     </row>
     <row r="198" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>11</v>
@@ -46723,10 +46731,10 @@
         <v>12</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H198"/>
       <c r="I198"/>
@@ -47356,13 +47364,13 @@
     </row>
     <row r="199" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B199" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>11</v>
@@ -47371,13 +47379,13 @@
         <v>12</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
       <c r="I199"/>
       <c r="J199" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
@@ -48004,13 +48012,13 @@
     </row>
     <row r="200" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>11</v>
@@ -48019,13 +48027,13 @@
         <v>12</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G200"/>
       <c r="H200"/>
       <c r="I200"/>
       <c r="J200" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -48652,13 +48660,13 @@
     </row>
     <row r="201" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>11</v>
@@ -48667,13 +48675,13 @@
         <v>12</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G201"/>
       <c r="H201"/>
       <c r="I201"/>
       <c r="J201" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
@@ -49300,13 +49308,13 @@
     </row>
     <row r="202" spans="1:632" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>11</v>
@@ -49315,15 +49323,15 @@
         <v>12</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
       <c r="J202" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -49950,13 +49958,13 @@
     </row>
     <row r="203" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
+        <v>133</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C203" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>11</v>
@@ -50594,10 +50602,10 @@
     </row>
     <row r="204" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -51225,7 +51233,7 @@
     </row>
     <row r="205" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -51861,10 +51869,10 @@
     </row>
     <row r="206" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="8" t="s">
@@ -51877,15 +51885,15 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="207" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="8" t="s">
@@ -51898,7 +51906,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
@@ -52526,10 +52534,10 @@
     </row>
     <row r="208" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -53157,7 +53165,7 @@
     </row>
     <row r="209" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B209"/>
       <c r="C209"/>
@@ -53793,25 +53801,25 @@
     </row>
     <row r="210" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2" t="s">
@@ -54443,25 +54451,25 @@
     </row>
     <row r="211" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2" t="s">
@@ -55093,25 +55101,25 @@
     </row>
     <row r="212" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2" t="s">
@@ -55743,50 +55751,50 @@
     </row>
     <row r="213" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="215" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="218" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="219" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="1:632" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J221" s="10"/>
       <c r="K221" s="10"/>
@@ -56414,65 +56422,65 @@
     </row>
     <row r="222" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="224" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="226" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="227" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="228" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="230" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="231" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B233" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>25</v>
@@ -56483,10 +56491,10 @@
     </row>
     <row r="234" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B234" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>25</v>
@@ -56497,10 +56505,10 @@
     </row>
     <row r="235" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -57128,10 +57136,10 @@
     </row>
     <row r="236" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -57759,10 +57767,10 @@
     </row>
     <row r="237" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -58390,56 +58398,56 @@
     </row>
     <row r="238" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I239" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="240" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -58470,7 +58478,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/doc/数据库表名称(表名解释).xlsx
+++ b/doc/数据库表名称(表名解释).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="495">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -417,9 +417,6 @@
     <t>是否需要和dim_hmsc合并</t>
   </si>
   <si>
-    <t>FACT_SESSION_HMSC</t>
-  </si>
-  <si>
     <t>APP应用渠道维度表（会话）</t>
   </si>
   <si>
@@ -803,9 +800,6 @@
     <t>商品日均销售</t>
   </si>
   <si>
-    <t>FACT_FAVORITES</t>
-  </si>
-  <si>
     <t>商品收藏表</t>
   </si>
   <si>
@@ -915,9 +909,6 @@
   </si>
   <si>
     <t>使用时长维度表</t>
-  </si>
-  <si>
-    <t>FACT_VIDEO_FEATURE</t>
   </si>
   <si>
     <t>视频回播维度表</t>
@@ -1041,9 +1032,6 @@
   </si>
   <si>
     <t>processpvvisitor</t>
-  </si>
-  <si>
-    <t>FACT_SEARCH</t>
   </si>
   <si>
     <t>用户搜索事实表</t>
@@ -1786,6 +1774,22 @@
     <t>FACT_DAILY_APP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>FACT_FAVORITES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_SEARCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_VIDEO_FEATURE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_SESSION_HMSC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2180,8 +2184,8 @@
   <dimension ref="A1:XH243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2226,15 +2230,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
@@ -2249,15 +2253,15 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>24</v>
@@ -2273,10 +2277,10 @@
     </row>
     <row r="4" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
@@ -2292,15 +2296,15 @@
       </c>
       <c r="G4" s="6"/>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
@@ -2318,10 +2322,10 @@
     </row>
     <row r="6" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -2339,10 +2343,10 @@
     </row>
     <row r="7" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -2402,10 +2406,10 @@
     </row>
     <row r="10" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -2423,10 +2427,10 @@
     </row>
     <row r="11" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -2444,10 +2448,10 @@
     </row>
     <row r="12" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>24</v>
@@ -2465,12 +2469,12 @@
     </row>
     <row r="13" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3098,12 +3102,12 @@
     </row>
     <row r="14" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3731,12 +3735,12 @@
     </row>
     <row r="15" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4364,10 +4368,10 @@
     </row>
     <row r="16" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>24</v>
@@ -4383,10 +4387,10 @@
     </row>
     <row r="17" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -4401,23 +4405,23 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -5045,15 +5049,15 @@
     </row>
     <row r="19" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -5681,12 +5685,12 @@
     </row>
     <row r="20" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -6337,10 +6341,10 @@
     </row>
     <row r="22" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>24</v>
@@ -6356,15 +6360,15 @@
       </c>
       <c r="G22" s="6"/>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>24</v>
@@ -7007,7 +7011,7 @@
     </row>
     <row r="24" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
@@ -7021,15 +7025,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>24</v>
@@ -7047,10 +7051,10 @@
     </row>
     <row r="26" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -7068,10 +7072,10 @@
     </row>
     <row r="27" spans="1:632" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
@@ -7086,15 +7090,15 @@
         <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>24</v>
@@ -7112,7 +7116,7 @@
     </row>
     <row r="29" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
@@ -7121,7 +7125,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -7749,10 +7753,10 @@
     </row>
     <row r="30" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>24</v>
@@ -7770,10 +7774,10 @@
     </row>
     <row r="31" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>24</v>
@@ -7791,10 +7795,10 @@
     </row>
     <row r="32" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>24</v>
@@ -7809,15 +7813,15 @@
         <v>13</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -7832,15 +7836,15 @@
         <v>13</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -8481,10 +8485,10 @@
     </row>
     <row r="35" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>24</v>
@@ -8502,7 +8506,7 @@
     </row>
     <row r="36" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>24</v>
@@ -8511,7 +8515,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -9139,7 +9143,7 @@
     </row>
     <row r="37" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>24</v>
@@ -9148,7 +9152,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -9776,10 +9780,10 @@
     </row>
     <row r="38" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -9791,21 +9795,21 @@
         <v>12</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>10</v>
@@ -9817,21 +9821,21 @@
         <v>12</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>24</v>
@@ -9849,10 +9853,10 @@
     </row>
     <row r="41" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>24</v>
@@ -9870,10 +9874,10 @@
     </row>
     <row r="42" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>24</v>
@@ -9891,10 +9895,10 @@
     </row>
     <row r="43" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>24</v>
@@ -9909,12 +9913,12 @@
         <v>13</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>24</v>
@@ -9923,7 +9927,7 @@
         <v>25</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -10551,10 +10555,10 @@
     </row>
     <row r="45" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>24</v>
@@ -10566,15 +10570,15 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>24</v>
@@ -10583,7 +10587,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -11211,7 +11215,7 @@
     </row>
     <row r="47" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>24</v>
@@ -11220,7 +11224,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -11848,10 +11852,10 @@
     </row>
     <row r="48" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
@@ -11869,10 +11873,10 @@
     </row>
     <row r="49" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>24</v>
@@ -12513,10 +12517,10 @@
     </row>
     <row r="50" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>24</v>
@@ -13157,7 +13161,7 @@
     </row>
     <row r="51" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>24</v>
@@ -13166,7 +13170,7 @@
         <v>25</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -13794,7 +13798,7 @@
     </row>
     <row r="52" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>24</v>
@@ -13803,7 +13807,7 @@
         <v>25</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -14431,10 +14435,10 @@
     </row>
     <row r="53" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>24</v>
@@ -14452,7 +14456,7 @@
     </row>
     <row r="54" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>18</v>
@@ -14478,7 +14482,7 @@
     </row>
     <row r="55" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>19</v>
@@ -14549,82 +14553,82 @@
     </row>
     <row r="58" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:632" x14ac:dyDescent="0.15">
@@ -14725,10 +14729,10 @@
     </row>
     <row r="66" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>24</v>
@@ -14743,7 +14747,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>26</v>
@@ -14751,7 +14755,7 @@
     </row>
     <row r="67" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>9</v>
@@ -14775,12 +14779,12 @@
         <v>15</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>16</v>
@@ -14804,12 +14808,12 @@
         <v>15</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>64</v>
@@ -14830,7 +14834,7 @@
         <v>65</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:632" ht="22.5" x14ac:dyDescent="0.15">
@@ -14887,7 +14891,7 @@
     </row>
     <row r="72" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -14903,7 +14907,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -15531,10 +15535,10 @@
     </row>
     <row r="73" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -15546,18 +15550,18 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -15573,15 +15577,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -15596,11 +15600,13 @@
         <v>13</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75" s="4"/>
+      <c r="J75" s="12" t="s">
+        <v>480</v>
+      </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -16226,10 +16232,10 @@
     </row>
     <row r="76" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -16244,15 +16250,15 @@
         <v>13</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -16267,11 +16273,13 @@
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77" s="4"/>
+      <c r="J77" s="12" t="s">
+        <v>477</v>
+      </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -16897,10 +16905,10 @@
     </row>
     <row r="78" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>10</v>
@@ -16915,15 +16923,15 @@
         <v>13</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
@@ -16938,18 +16946,18 @@
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>11</v>
@@ -16958,24 +16966,24 @@
         <v>72</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>11</v>
@@ -16984,24 +16992,24 @@
         <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>11</v>
@@ -17010,24 +17018,24 @@
         <v>72</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>11</v>
@@ -17036,24 +17044,24 @@
         <v>72</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>11</v>
@@ -17062,24 +17070,24 @@
         <v>72</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>25</v>
@@ -17092,18 +17100,18 @@
       </c>
       <c r="G85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>25</v>
@@ -17116,12 +17124,12 @@
       </c>
       <c r="G86" s="6"/>
       <c r="I86" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -17131,18 +17139,18 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>25</v>
@@ -17155,13 +17163,13 @@
     </row>
     <row r="89" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>25</v>
@@ -17175,14 +17183,14 @@
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
-        <v>199</v>
+      <c r="A90" s="13" t="s">
+        <v>491</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>25</v>
@@ -17197,13 +17205,13 @@
     </row>
     <row r="91" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>25</v>
@@ -17902,13 +17910,13 @@
     </row>
     <row r="95" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>25</v>
@@ -17919,18 +17927,18 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="J95" s="12" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>25</v>
@@ -17939,24 +17947,24 @@
         <v>12</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G96" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="J96" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>10</v>
@@ -17970,15 +17978,15 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="J97" s="12" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -17990,18 +17998,18 @@
         <v>12</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>25</v>
@@ -18010,24 +18018,24 @@
         <v>12</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>25</v>
@@ -18036,21 +18044,21 @@
         <v>12</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -18062,24 +18070,24 @@
         <v>12</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>25</v>
@@ -18090,12 +18098,12 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="J102" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>58</v>
@@ -18116,12 +18124,12 @@
         <v>57</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -18131,7 +18139,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -18759,13 +18767,13 @@
     </row>
     <row r="105" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>25</v>
@@ -19424,10 +19432,10 @@
     </row>
     <row r="107" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>24</v>
@@ -20068,7 +20076,7 @@
     </row>
     <row r="108" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -20078,12 +20086,12 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -20093,7 +20101,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -20721,7 +20729,7 @@
     </row>
     <row r="110" spans="1:632" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -20731,18 +20739,18 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>11</v>
@@ -20751,17 +20759,17 @@
         <v>12</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H111"/>
       <c r="I111" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -21388,13 +21396,13 @@
     </row>
     <row r="112" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>11</v>
@@ -21403,17 +21411,17 @@
         <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H112"/>
       <c r="I112" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -22040,13 +22048,13 @@
     </row>
     <row r="113" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>11</v>
@@ -22055,14 +22063,14 @@
         <v>12</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H113"/>
       <c r="I113" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -22690,13 +22698,13 @@
     </row>
     <row r="114" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>11</v>
@@ -22705,18 +22713,18 @@
         <v>12</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -22726,7 +22734,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -23354,13 +23362,13 @@
     </row>
     <row r="116" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>25</v>
@@ -23369,24 +23377,24 @@
         <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>25</v>
@@ -23395,24 +23403,24 @@
         <v>12</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="C118" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>25</v>
@@ -23424,7 +23432,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -24054,7 +24062,7 @@
     </row>
     <row r="119" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -24064,18 +24072,18 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>25</v>
@@ -24084,21 +24092,21 @@
         <v>12</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H120">
         <v>9.4</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -24108,12 +24116,12 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -24123,7 +24131,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -24774,13 +24782,13 @@
     </row>
     <row r="124" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>25</v>
@@ -24789,15 +24797,15 @@
         <v>12</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" s="12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -25424,10 +25432,10 @@
     </row>
     <row r="125" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -26731,13 +26739,13 @@
     </row>
     <row r="128" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>25</v>
@@ -26749,7 +26757,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -27455,10 +27463,10 @@
     </row>
     <row r="132" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -27473,15 +27481,15 @@
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -27496,15 +27504,15 @@
         <v>13</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -27519,18 +27527,18 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>25</v>
@@ -27545,7 +27553,7 @@
     </row>
     <row r="136" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -27555,12 +27563,12 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -27570,15 +27578,15 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>80</v>
@@ -27594,7 +27602,7 @@
       </c>
       <c r="G138" s="6"/>
       <c r="I138" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -28247,7 +28255,7 @@
     </row>
     <row r="140" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -28257,7 +28265,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -28884,14 +28892,14 @@
       <c r="XH140" s="4"/>
     </row>
     <row r="141" spans="1:632" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>279</v>
+      <c r="A141" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>25</v>
@@ -28903,16 +28911,19 @@
         <v>13</v>
       </c>
       <c r="G141" s="6"/>
+      <c r="J141" s="12" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="142" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>25</v>
@@ -28924,10 +28935,10 @@
         <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -29554,10 +29565,10 @@
     </row>
     <row r="143" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
+        <v>494</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>80</v>
@@ -30204,13 +30215,13 @@
     </row>
     <row r="144" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A144" s="15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>25</v>
@@ -30223,18 +30234,18 @@
       </c>
       <c r="G144" s="6"/>
       <c r="J144" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>25</v>
@@ -30870,13 +30881,13 @@
     </row>
     <row r="146" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="C146" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>25</v>
@@ -30889,13 +30900,13 @@
     </row>
     <row r="147" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="C147" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>25</v>
@@ -30908,7 +30919,7 @@
     </row>
     <row r="148" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>79</v>
@@ -30934,10 +30945,10 @@
     </row>
     <row r="149" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>493</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>80</v>
@@ -30951,18 +30962,18 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="I149" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>25</v>
@@ -30975,18 +30986,18 @@
       </c>
       <c r="G150" s="6"/>
       <c r="J150" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="151" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>25</v>
@@ -30998,21 +31009,21 @@
         <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="152" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>25</v>
@@ -31021,21 +31032,21 @@
         <v>12</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A153" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>10</v>
@@ -31044,7 +31055,7 @@
         <v>11</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>13</v>
@@ -31053,7 +31064,7 @@
     </row>
     <row r="154" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -31063,12 +31074,12 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -31078,15 +31089,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -31101,12 +31112,12 @@
         <v>13</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -31116,7 +31127,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -31744,10 +31755,10 @@
     </row>
     <row r="158" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -31762,7 +31773,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
@@ -32392,7 +32403,7 @@
     </row>
     <row r="159" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -32402,7 +32413,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
@@ -33030,10 +33041,10 @@
     </row>
     <row r="160" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>10</v>
@@ -33048,7 +33059,7 @@
         <v>13</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -33678,7 +33689,7 @@
     </row>
     <row r="161" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -33688,15 +33699,15 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>10</v>
@@ -33711,15 +33722,15 @@
         <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -33734,7 +33745,7 @@
         <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
@@ -34364,7 +34375,7 @@
     </row>
     <row r="164" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -34374,18 +34385,18 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>25</v>
@@ -34394,17 +34405,17 @@
         <v>77</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I165"/>
       <c r="J165" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -35031,13 +35042,13 @@
     </row>
     <row r="166" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>25</v>
@@ -35046,24 +35057,24 @@
         <v>77</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
@@ -35072,20 +35083,20 @@
         <v>11</v>
       </c>
       <c r="E167" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G167" s="6" t="s">
+      <c r="H167" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="I167"/>
       <c r="J167" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -35712,10 +35723,10 @@
     </row>
     <row r="168" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -36343,10 +36354,10 @@
     </row>
     <row r="169" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -36974,10 +36985,10 @@
     </row>
     <row r="170" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -37605,10 +37616,10 @@
     </row>
     <row r="171" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
@@ -38236,10 +38247,10 @@
     </row>
     <row r="172" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -38867,10 +38878,10 @@
     </row>
     <row r="173" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -39498,10 +39509,10 @@
     </row>
     <row r="174" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -40129,10 +40140,10 @@
     </row>
     <row r="175" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -40760,10 +40771,10 @@
     </row>
     <row r="176" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -41391,10 +41402,10 @@
     </row>
     <row r="177" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -42022,10 +42033,10 @@
     </row>
     <row r="178" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -42653,10 +42664,10 @@
     </row>
     <row r="179" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -43284,10 +43295,10 @@
     </row>
     <row r="180" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -43915,13 +43926,13 @@
     </row>
     <row r="181" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
+        <v>196</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="C181" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>11</v>
@@ -43934,13 +43945,13 @@
     </row>
     <row r="182" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>11</v>
@@ -43954,7 +43965,7 @@
     </row>
     <row r="183" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -43964,12 +43975,12 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="184" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -43979,12 +43990,12 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="185" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -43994,12 +44005,12 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="186" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -44009,12 +44020,12 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -44024,12 +44035,12 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -44039,12 +44050,12 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -44054,12 +44065,12 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -44069,12 +44080,12 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -44084,12 +44095,12 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -44099,18 +44110,18 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
+        <v>145</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="C193" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>11</v>
@@ -44119,18 +44130,18 @@
         <v>12</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
+        <v>143</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="C194" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>11</v>
@@ -44768,13 +44779,13 @@
     </row>
     <row r="195" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>11</v>
@@ -44783,10 +44794,10 @@
         <v>12</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H195">
         <v>30</v>
@@ -45418,13 +45429,13 @@
     </row>
     <row r="196" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>11</v>
@@ -45433,15 +45444,15 @@
         <v>12</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H196"/>
       <c r="I196"/>
       <c r="J196" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -46068,13 +46079,13 @@
     </row>
     <row r="197" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>11</v>
@@ -46083,10 +46094,10 @@
         <v>12</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H197"/>
       <c r="I197"/>
@@ -46716,13 +46727,13 @@
     </row>
     <row r="198" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>11</v>
@@ -46731,10 +46742,10 @@
         <v>12</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H198"/>
       <c r="I198"/>
@@ -47364,13 +47375,13 @@
     </row>
     <row r="199" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B199" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>11</v>
@@ -47379,13 +47390,13 @@
         <v>12</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
       <c r="I199"/>
       <c r="J199" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
@@ -48012,13 +48023,13 @@
     </row>
     <row r="200" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>11</v>
@@ -48027,13 +48038,13 @@
         <v>12</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G200"/>
       <c r="H200"/>
       <c r="I200"/>
       <c r="J200" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -48660,13 +48671,13 @@
     </row>
     <row r="201" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>11</v>
@@ -48675,13 +48686,13 @@
         <v>12</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G201"/>
       <c r="H201"/>
       <c r="I201"/>
       <c r="J201" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
@@ -49308,13 +49319,13 @@
     </row>
     <row r="202" spans="1:632" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>11</v>
@@ -49323,15 +49334,15 @@
         <v>12</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
       <c r="J202" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -49958,13 +49969,13 @@
     </row>
     <row r="203" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
+        <v>132</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C203" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>11</v>
@@ -50602,10 +50613,10 @@
     </row>
     <row r="204" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -51233,7 +51244,7 @@
     </row>
     <row r="205" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -51869,10 +51880,10 @@
     </row>
     <row r="206" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="8" t="s">
@@ -51885,15 +51896,15 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="8" t="s">
@@ -51906,7 +51917,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
@@ -52534,10 +52545,10 @@
     </row>
     <row r="208" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -53165,7 +53176,7 @@
     </row>
     <row r="209" spans="1:632" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B209"/>
       <c r="C209"/>
@@ -53801,13 +53812,13 @@
     </row>
     <row r="210" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>11</v>
@@ -53819,7 +53830,7 @@
         <v>13</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2" t="s">
@@ -54451,13 +54462,13 @@
     </row>
     <row r="211" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>11</v>
@@ -54469,7 +54480,7 @@
         <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2" t="s">
@@ -55101,13 +55112,13 @@
     </row>
     <row r="212" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>11</v>
@@ -55119,7 +55130,7 @@
         <v>13</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2" t="s">
@@ -55751,50 +55762,50 @@
     </row>
     <row r="213" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="220" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="221" spans="1:632" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J221" s="10"/>
       <c r="K221" s="10"/>
@@ -56422,65 +56433,65 @@
     </row>
     <row r="222" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="224" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="226" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="228" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="230" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="232" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B233" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>25</v>
@@ -56491,10 +56502,10 @@
     </row>
     <row r="234" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B234" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>25</v>
@@ -56505,10 +56516,10 @@
     </row>
     <row r="235" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -57136,10 +57147,10 @@
     </row>
     <row r="236" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -57767,10 +57778,10 @@
     </row>
     <row r="237" spans="1:632" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -58398,56 +58409,56 @@
     </row>
     <row r="238" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I239" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="240" spans="1:632" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -58478,7 +58489,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
